--- a/tests/submodels/fixtures/test_submodel.xlsx
+++ b/tests/submodels/fixtures/test_submodel.xlsx
@@ -7,30 +7,30 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" visibility="visible" windowHeight="13965" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Model" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Taxon" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Environment" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Submodels" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Compartments" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species types" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Species" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Initial species concentrations" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observables" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Functions" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Reactions" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Parameters" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observations" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!References" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Authors" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!Changes" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Model" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Taxon" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Environment" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Submodels" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Compartments" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species types" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Species" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Init species concentrations" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observables" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Functions" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Reactions" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Rate laws" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objectives" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective reactions" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!dFBA objective species" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Parameters" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Stop conditions" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observations" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Observation sets" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Conclusions" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!References" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Authors" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Changes" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName localSheetId="5" name="_FilterDatabase_0">Compartments!$A$2:$G$4</definedName>
@@ -68,12 +68,12 @@
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0">References!$A$1:$D$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0">References!$A$1:$D$1</definedName>
     <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!Compartments'!$A$2:$G$4</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!Species types'!$A$2:$K$9</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!Reactions'!$A$2:$D$7</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!Parameters'!$A$1:$F$11</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!References'!$A$1:$D$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$G$4</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$K$9</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$D$7</definedName>
+    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$F$11</definedName>
+    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -702,14 +702,14 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="41"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="42"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,7 +719,7 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf applyAlignment="1" borderId="4" fillId="10" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1134,7 +1134,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1151,42 +1151,38 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="26" t="inlineStr">
         <is>
           <t>!Table</t>
         </is>
       </c>
-      <c r="B2" s="26" t="inlineStr">
+      <c r="B3" s="26" t="inlineStr">
         <is>
           <t>!Description</t>
         </is>
       </c>
-      <c r="C2" s="26" t="inlineStr">
+      <c r="C3" s="26" t="inlineStr">
         <is>
           <t>!Number of objects</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="27" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B3" s="27" t="n"/>
-      <c r="C3" s="27" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="27" t="inlineStr">
         <is>
-          <t>Taxon</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B4" s="27" t="n"/>
@@ -1197,7 +1193,7 @@
     <row r="5">
       <c r="A5" s="27" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Taxon</t>
         </is>
       </c>
       <c r="B5" s="27" t="n"/>
@@ -1208,220 +1204,231 @@
     <row r="6">
       <c r="A6" s="27" t="inlineStr">
         <is>
-          <t>Submodels</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="B6" s="27" t="n"/>
       <c r="C6" s="27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="27" t="inlineStr">
         <is>
-          <t>Compartments</t>
+          <t>Submodels</t>
         </is>
       </c>
       <c r="B7" s="27" t="n"/>
       <c r="C7" s="27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="27" t="inlineStr">
         <is>
-          <t>Species types</t>
+          <t>Compartments</t>
         </is>
       </c>
       <c r="B8" s="27" t="n"/>
       <c r="C8" s="27" t="n">
-        <v>143</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="27" t="inlineStr">
         <is>
-          <t>Species</t>
+          <t>Species types</t>
         </is>
       </c>
       <c r="B9" s="27" t="n"/>
       <c r="C9" s="27" t="n">
-        <v>175</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="27" t="inlineStr">
         <is>
-          <t>Initial species concentrations</t>
+          <t>Species</t>
         </is>
       </c>
       <c r="B10" s="27" t="n"/>
       <c r="C10" s="27" t="n">
-        <v>125</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="27" t="inlineStr">
         <is>
-          <t>Observables</t>
+          <t>Initial species concentrations</t>
         </is>
       </c>
       <c r="B11" s="27" t="n"/>
       <c r="C11" s="27" t="n">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="27" t="inlineStr">
         <is>
-          <t>Functions</t>
+          <t>Observables</t>
         </is>
       </c>
       <c r="B12" s="27" t="n"/>
       <c r="C12" s="27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="27" t="inlineStr">
         <is>
-          <t>Reactions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="B13" s="27" t="n"/>
       <c r="C13" s="27" t="n">
-        <v>175</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="27" t="inlineStr">
         <is>
-          <t>Rate laws</t>
+          <t>Reactions</t>
         </is>
       </c>
       <c r="B14" s="27" t="n"/>
       <c r="C14" s="27" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="27" t="inlineStr">
         <is>
-          <t>dFBA objectives</t>
+          <t>Rate laws</t>
         </is>
       </c>
       <c r="B15" s="27" t="n"/>
       <c r="C15" s="27" t="n">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="27" t="inlineStr">
         <is>
-          <t>dFBA objective reactions</t>
+          <t>dFBA objectives</t>
         </is>
       </c>
       <c r="B16" s="27" t="n"/>
       <c r="C16" s="27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="27" t="inlineStr">
         <is>
-          <t>dFBA objective species</t>
+          <t>dFBA objective reactions</t>
         </is>
       </c>
       <c r="B17" s="27" t="n"/>
       <c r="C17" s="27" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="27" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>dFBA objective species</t>
         </is>
       </c>
       <c r="B18" s="27" t="n"/>
       <c r="C18" s="27" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="27" t="inlineStr">
         <is>
-          <t>Stop conditions</t>
+          <t>Parameters</t>
         </is>
       </c>
       <c r="B19" s="27" t="n"/>
       <c r="C19" s="27" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="27" t="inlineStr">
         <is>
-          <t>Observations</t>
+          <t>Stop conditions</t>
         </is>
       </c>
       <c r="B20" s="27" t="n"/>
       <c r="C20" s="27" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="27" t="inlineStr">
         <is>
-          <t>Observation sets</t>
+          <t>Observations</t>
         </is>
       </c>
       <c r="B21" s="27" t="n"/>
       <c r="C21" s="27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="27" t="inlineStr">
         <is>
-          <t>Conclusions</t>
+          <t>Observation sets</t>
         </is>
       </c>
       <c r="B22" s="27" t="n"/>
       <c r="C22" s="27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="27" t="inlineStr">
         <is>
-          <t>References</t>
+          <t>Conclusions</t>
         </is>
       </c>
       <c r="B23" s="27" t="n"/>
       <c r="C23" s="27" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="27" t="inlineStr">
         <is>
-          <t>Authors</t>
+          <t>References</t>
         </is>
       </c>
       <c r="B24" s="27" t="n"/>
       <c r="C24" s="27" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="27" t="inlineStr">
         <is>
-          <t>Changes</t>
+          <t>Authors</t>
         </is>
       </c>
       <c r="B25" s="27" t="n"/>
       <c r="C25" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="27" t="inlineStr">
+        <is>
+          <t>Changes</t>
+        </is>
+      </c>
+      <c r="B26" s="27" t="n"/>
+      <c r="C26" s="27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1480,7 +1487,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observable' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1579,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Function' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD8"/>
+  <dimension ref="A1:AMM8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="E2" xSplit="1" ySplit="2"/>
@@ -1700,7 +1707,7 @@
     <row customHeight="1" ht="13.5" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4002,7 +4009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -4026,7 +4033,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='RateLaw' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4229,7 +4236,6 @@
       </c>
       <c r="L7" s="10" t="n"/>
     </row>
-    <row r="8"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
   <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
@@ -4260,7 +4266,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjective' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4395,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4490,7 +4496,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4602,7 @@
     <row customFormat="1" r="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4879,7 +4885,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='StopCondition' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -4968,7 +4974,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Observation' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5153,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Model' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5314,7 +5320,7 @@
     <row customHeight="1" ht="15.1" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='ObservationSet' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5398,7 +5404,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Conclusion' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5560,7 +5566,7 @@
     <row customFormat="1" r="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5688,7 +5694,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5783,7 +5789,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5902,7 +5908,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Taxon' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -5999,7 +6005,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6102,7 +6108,7 @@
     <row customFormat="1" r="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Submodel' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XFD5"/>
+  <dimension ref="A1:AMR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="C3" xSplit="1" ySplit="2"/>
@@ -6222,7 +6228,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Compartment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8578,7 +8584,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='SpeciesType' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -8828,11 +8834,6 @@
         </is>
       </c>
     </row>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
     <row r="16">
       <c r="I16" s="15" t="n"/>
     </row>
@@ -8872,7 +8873,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='Species' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
@@ -9175,7 +9176,7 @@
     <row customHeight="1" ht="15" r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables TableType='Data' ModelId='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>

--- a/tests/submodels/fixtures/test_submodel.xlsx
+++ b/tests/submodels/fixtures/test_submodel.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="993" visibility="visible" windowHeight="13965" windowWidth="28695"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!_Table of contents" sheetId="1" state="visible" r:id="rId1"/>
@@ -33,47 +33,47 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Changes" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="5" name="_FilterDatabase_0">Compartments!$A$2:$G$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0">Compartments!$A$2:$G$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0">Compartments!$A$2:$G$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0">Compartments!$A$2:$G$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0">Compartments!$A$2:$G$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0">Compartments!$A$2:$G$4</definedName>
-    <definedName localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0">Compartments!$A$2:$G$4</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="6" name="_FilterDatabase_0_0_0_0_0_0_0">'Species types'!$A$2:$K$7</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="11" name="_FilterDatabase_0_0_0_0_0_0_0">Reactions!$A$2:$D$6</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0">Parameters!$A$1:$F$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0">Parameters!$A$1:$F$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0">Parameters!$A$1:$F$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0">Parameters!$A$1:$F$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0">Parameters!$A$1:$F$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0">Parameters!$A$1:$F$1</definedName>
-    <definedName localSheetId="16" name="_FilterDatabase_0_0_0_0_0_0_0">Parameters!$A$1:$F$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName localSheetId="21" name="_FilterDatabase_0_0_0_0_0_0_0">References!$A$1:$D$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'!!_Table of contents'!$A$1:$C$24</definedName>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">'!!Compartments'!$A$2:$G$4</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">'!!Species types'!$A$2:$K$9</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">'!!Reactions'!$A$2:$D$7</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">'!!Parameters'!$A$1:$F$11</definedName>
-    <definedName hidden="1" localSheetId="21" name="_xlnm._FilterDatabase">'!!References'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$1:$C$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!Compartments'!$A$2:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Species types'!$A$2:$K$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!!Reactions'!$A$2:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!!Parameters'!$A$1:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!!References'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -82,9 +82,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;" numFmtId="164"/>
-    <numFmt formatCode="0.000E+00" numFmtId="165"/>
-    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="166"/>
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -597,279 +597,279 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="24" numFmtId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="22" numFmtId="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="21" numFmtId="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="25" numFmtId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="11" fontId="19" numFmtId="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="166"/>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="10" numFmtId="0">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="30" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="15" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="11" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="23" numFmtId="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="4" fillId="10" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="30">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="35"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="35"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="35">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="35">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="1"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="2"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="3"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="4"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="5"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="6"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="7"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="8"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="9"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="10"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="11"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="12"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="13"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="16"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="17"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="18"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="20"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="21"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="22"/>
-    <cellStyle builtinId="27" name="Bad" xfId="23"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="24"/>
-    <cellStyle builtinId="25" name="Total" xfId="25"/>
-    <cellStyle builtinId="21" name="Output" xfId="26"/>
-    <cellStyle builtinId="4" name="Currency" xfId="27"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="28"/>
-    <cellStyle builtinId="10" name="Note" xfId="29"/>
-    <cellStyle builtinId="20" name="Input" xfId="30"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="31"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="32"/>
-    <cellStyle builtinId="26" name="Good" xfId="33"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="34"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="35"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="36"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="37"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="38"/>
-    <cellStyle builtinId="15" name="Title" xfId="39"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="40"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="41"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="42"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="43"/>
-    <cellStyle builtinId="3" name="Comma" xfId="44"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="45"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="46"/>
-    <cellStyle builtinId="5" name="Percent" xfId="47"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1137,28 +1137,28 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A21" pane="bottomLeft" sqref="A19:A21"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A19:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="25" width="15.7083333333333"/>
-    <col customWidth="1" hidden="1" max="16384" min="4" style="25" width="9"/>
+    <col width="15.7083333333333" customWidth="1" style="25" min="1" max="3"/>
+    <col hidden="1" width="9" customWidth="1" style="25" min="4" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!!ObjTables ObjTablesVersion='0.0.8'</t>
+          <t>!!!ObjTables objTablesVersion='0.0.8'</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Schema' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Schema' objTablesVersion='0.0.8' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1435,30 +1435,30 @@
   </sheetData>
   <autoFilter ref="A1:C24"/>
   <hyperlinks>
-    <hyperlink display="Model" location="'Model'!A1" ref="A2" tooltip="Click to view model"/>
-    <hyperlink display="Taxon" location="'Taxon'!A1" ref="A3" tooltip="Click to view taxon"/>
-    <hyperlink display="Environment" location="'Environment'!A1" ref="A4" tooltip="Click to view environment"/>
-    <hyperlink display="Submodels" location="'Submodels'!A1" ref="A5" tooltip="Click to view submodels"/>
-    <hyperlink display="Compartments" location="'Compartments'!A1" ref="A6" tooltip="Click to view compartments"/>
-    <hyperlink display="Species types" location="'Species types'!A1" ref="A7" tooltip="Click to view species types"/>
-    <hyperlink display="Species" location="'Species'!A1" ref="A8" tooltip="Click to view species"/>
-    <hyperlink display="Initial species concentrations" location="'Initial species concentrations'!A1" ref="A9" tooltip="Click to view initial species concentrations"/>
-    <hyperlink display="Observables" location="'Observables'!A1" ref="A10" tooltip="Click to view observables"/>
-    <hyperlink display="Functions" location="'Functions'!A1" ref="A11" tooltip="Click to view functions"/>
-    <hyperlink display="Reactions" location="'Reactions'!A1" ref="A12" tooltip="Click to view reactions"/>
-    <hyperlink display="Rate laws" location="'Rate laws'!A1" ref="A13" tooltip="Click to view rate laws"/>
-    <hyperlink display="dFBA objectives" location="'dFBA objectives'!A1" ref="A14" tooltip="Click to view dfba objectives"/>
-    <hyperlink display="dFBA objective reactions" location="'dFBA objective reactions'!A1" ref="A15" tooltip="Click to view dfba objective reactions"/>
-    <hyperlink display="dFBA objective species" location="'dFBA objective species'!A1" ref="A16" tooltip="Click to view dfba objective species"/>
-    <hyperlink display="Parameters" location="'Parameters'!A1" ref="A17" tooltip="Click to view parameters"/>
-    <hyperlink display="Stop conditions" location="'Stop conditions'!A1" ref="A18" tooltip="Click to view stop conditions"/>
-    <hyperlink display="Observations" location="'Evidence'!A1" ref="A19" tooltip="Click to view evidence"/>
-    <hyperlink display="Conclusions" location="'Interpretations'!A1" ref="A21" tooltip="Click to view interpretations"/>
-    <hyperlink display="References" location="'References'!A1" ref="A22" tooltip="Click to view references"/>
-    <hyperlink display="Authors" location="'Authors'!A1" ref="A23" tooltip="Click to view authors"/>
-    <hyperlink display="Changes" location="'Changes'!A1" ref="A24" tooltip="Click to view changes"/>
+    <hyperlink ref="A2" location="'Model'!A1" tooltip="Click to view model" display="Model"/>
+    <hyperlink ref="A3" location="'Taxon'!A1" tooltip="Click to view taxon" display="Taxon"/>
+    <hyperlink ref="A4" location="'Environment'!A1" tooltip="Click to view environment" display="Environment"/>
+    <hyperlink ref="A5" location="'Submodels'!A1" tooltip="Click to view submodels" display="Submodels"/>
+    <hyperlink ref="A6" location="'Compartments'!A1" tooltip="Click to view compartments" display="Compartments"/>
+    <hyperlink ref="A7" location="'Species types'!A1" tooltip="Click to view species types" display="Species types"/>
+    <hyperlink ref="A8" location="'Species'!A1" tooltip="Click to view species" display="Species"/>
+    <hyperlink ref="A9" location="'Initial species concentrations'!A1" tooltip="Click to view initial species concentrations" display="Initial species concentrations"/>
+    <hyperlink ref="A10" location="'Observables'!A1" tooltip="Click to view observables" display="Observables"/>
+    <hyperlink ref="A11" location="'Functions'!A1" tooltip="Click to view functions" display="Functions"/>
+    <hyperlink ref="A12" location="'Reactions'!A1" tooltip="Click to view reactions" display="Reactions"/>
+    <hyperlink ref="A13" location="'Rate laws'!A1" tooltip="Click to view rate laws" display="Rate laws"/>
+    <hyperlink ref="A14" location="'dFBA objectives'!A1" tooltip="Click to view dfba objectives" display="dFBA objectives"/>
+    <hyperlink ref="A15" location="'dFBA objective reactions'!A1" tooltip="Click to view dfba objective reactions" display="dFBA objective reactions"/>
+    <hyperlink ref="A16" location="'dFBA objective species'!A1" tooltip="Click to view dfba objective species" display="dFBA objective species"/>
+    <hyperlink ref="A17" location="'Parameters'!A1" tooltip="Click to view parameters" display="Parameters"/>
+    <hyperlink ref="A18" location="'Stop conditions'!A1" tooltip="Click to view stop conditions" display="Stop conditions"/>
+    <hyperlink ref="A19" location="'Evidence'!A1" tooltip="Click to view evidence" display="Observations"/>
+    <hyperlink ref="A21" location="'Interpretations'!A1" tooltip="Click to view interpretations" display="Conclusions"/>
+    <hyperlink ref="A22" location="'References'!A1" tooltip="Click to view references" display="References"/>
+    <hyperlink ref="A23" location="'Authors'!A1" tooltip="Click to view authors" display="Authors"/>
+    <hyperlink ref="A24" location="'Changes'!A1" tooltip="Click to view changes" display="Changes"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1471,23 +1471,23 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="G1" pane="bottomRight" sqref="G1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1026" min="1" style="24" width="9.108333333333331"/>
-    <col customWidth="1" max="16384" min="1027" style="24" width="9"/>
+    <col width="9.108333333333331" customWidth="1" style="24" min="1" max="1026"/>
+    <col width="9" customWidth="1" style="24" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Observable' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1539,8 +1539,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -1561,25 +1561,25 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="G1" pane="bottomRight" sqref="G1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="24" width="9.108333333333331"/>
-    <col customWidth="1" max="3" min="3" style="24" width="11"/>
-    <col customWidth="1" max="1023" min="4" style="24" width="9.108333333333331"/>
-    <col customWidth="1" max="16384" min="1024" style="24" width="9"/>
+    <col width="9.108333333333331" customWidth="1" style="24" min="1" max="2"/>
+    <col width="11" customWidth="1" style="24" min="3" max="3"/>
+    <col width="9.108333333333331" customWidth="1" style="24" min="4" max="1023"/>
+    <col width="9" customWidth="1" style="24" min="1024" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Function' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1665,8 +1665,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -1687,31 +1687,31 @@
   <dimension ref="A1:AMM8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="E2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="G1" pane="bottomRight" sqref="G1:I1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="24" width="18.2083333333333"/>
-    <col customWidth="1" max="2" min="2" style="24" width="25.925"/>
-    <col customWidth="1" max="3" min="3" style="24" width="15.2083333333333"/>
-    <col customWidth="1" max="4" min="4" style="24" width="46.5916666666667"/>
-    <col customWidth="1" max="1027" min="5" style="24" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1028" style="9" width="9"/>
+    <col width="18.2083333333333" customWidth="1" style="24" min="1" max="1"/>
+    <col width="25.925" customWidth="1" style="24" min="2" max="2"/>
+    <col width="15.2083333333333" customWidth="1" style="24" min="3" max="3"/>
+    <col width="46.5916666666667" customWidth="1" style="24" min="4" max="4"/>
+    <col width="8.78333333333333" customWidth="1" style="24" min="5" max="1027"/>
+    <col width="9" customWidth="1" style="9" min="1028" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.5" r="1">
+    <row r="1" ht="13.5" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Reaction' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.1" r="2" s="3">
+          <t>!!ObjTables type='Data' id='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customFormat="1" customHeight="1" s="3">
       <c r="A2" s="14" t="n"/>
       <c r="B2" s="14" t="n"/>
       <c r="C2" s="14" t="n"/>
@@ -3998,8 +3998,8 @@
   <mergeCells count="1">
     <mergeCell ref="G2:I2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -4012,28 +4012,28 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="E2" pane="bottomRight" sqref="E2:E7"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="24" width="10.6"/>
-    <col customWidth="1" max="3" min="3" style="24" width="9.125"/>
-    <col customWidth="1" max="4" min="4" style="24" width="10.6"/>
-    <col customWidth="1" max="5" min="5" style="24" width="4.875"/>
-    <col customWidth="1" max="6" min="6" style="24" width="60.625"/>
-    <col customWidth="1" max="1026" min="7" style="24" width="10.6"/>
-    <col customWidth="1" max="16384" min="1027" style="24" width="9"/>
+    <col width="10.6" customWidth="1" style="24" min="1" max="2"/>
+    <col width="9.125" customWidth="1" style="24" min="3" max="3"/>
+    <col width="10.6" customWidth="1" style="24" min="4" max="4"/>
+    <col width="4.875" customWidth="1" style="24" min="5" max="5"/>
+    <col width="60.625" customWidth="1" style="24" min="6" max="6"/>
+    <col width="10.6" customWidth="1" style="24" min="7" max="1026"/>
+    <col width="9" customWidth="1" style="24" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='RateLaw' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4237,8 +4237,8 @@
       <c r="L7" s="10" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -4251,22 +4251,22 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="D1" pane="bottomRight" sqref="D1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="24" width="9"/>
+    <col width="9" customWidth="1" style="24" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DfbaObjective' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -4378,24 +4378,24 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="H1" pane="bottomRight" sqref="H1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="11" width="17.8916666666667"/>
-    <col customWidth="1" max="3" min="2" style="11" width="24.3166666666667"/>
-    <col customWidth="1" max="1026" min="4" style="11" width="10.8166666666667"/>
+    <col width="17.8916666666667" customWidth="1" style="11" min="1" max="1"/>
+    <col width="24.3166666666667" customWidth="1" style="11" min="2" max="3"/>
+    <col width="10.8166666666667" customWidth="1" style="11" min="4" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DfbaObjReaction' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4452,8 +4452,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -4474,29 +4474,29 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="I1" pane="bottomRight" sqref="I1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="11" width="13.3916666666667"/>
-    <col customWidth="1" max="2" min="2" style="11" width="17.8916666666667"/>
-    <col customWidth="1" max="3" min="3" style="11" width="21.2083333333333"/>
-    <col customWidth="1" max="4" min="4" style="11" width="9.31666666666667"/>
-    <col customWidth="1" max="5" min="5" style="11" width="10.5"/>
-    <col customWidth="1" max="6" min="6" style="11" width="9.31666666666667"/>
-    <col customWidth="1" max="7" min="7" style="11" width="16.3916666666667"/>
-    <col customWidth="1" max="1026" min="8" style="11" width="10.8166666666667"/>
+    <col width="13.3916666666667" customWidth="1" style="11" min="1" max="1"/>
+    <col width="17.8916666666667" customWidth="1" style="11" min="2" max="2"/>
+    <col width="21.2083333333333" customWidth="1" style="11" min="3" max="3"/>
+    <col width="9.31666666666667" customWidth="1" style="11" min="4" max="4"/>
+    <col width="10.5" customWidth="1" style="11" min="5" max="5"/>
+    <col width="9.31666666666667" customWidth="1" style="11" min="6" max="6"/>
+    <col width="16.3916666666667" customWidth="1" style="11" min="7" max="7"/>
+    <col width="10.8166666666667" customWidth="1" style="11" min="8" max="1026"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DfbaObjSpecies' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4558,8 +4558,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -4580,29 +4580,29 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="C8" pane="bottomRight" sqref="C8"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="24" width="23.35"/>
-    <col customWidth="1" max="2" min="2" style="24" width="44.5666666666667"/>
-    <col customWidth="1" max="3" min="3" style="24" width="9.108333333333331"/>
-    <col customWidth="1" max="4" min="4" style="24" width="9.25"/>
-    <col customWidth="1" max="5" min="5" style="24" width="13.3916666666667"/>
-    <col customWidth="1" max="6" min="6" style="24" width="50.2416666666667"/>
-    <col customWidth="1" max="1026" min="7" style="24" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1027" style="9" width="9"/>
+    <col width="23.35" customWidth="1" style="24" min="1" max="1"/>
+    <col width="44.5666666666667" customWidth="1" style="24" min="2" max="2"/>
+    <col width="9.108333333333331" customWidth="1" style="24" min="3" max="3"/>
+    <col width="9.25" customWidth="1" style="24" min="4" max="4"/>
+    <col width="13.3916666666667" customWidth="1" style="24" min="5" max="5"/>
+    <col width="50.2416666666667" customWidth="1" style="24" min="6" max="6"/>
+    <col width="8.78333333333333" customWidth="1" style="24" min="7" max="1026"/>
+    <col width="9" customWidth="1" style="9" min="1027" max="16384"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3">
+    <row r="1" customFormat="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Parameter' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4855,8 +4855,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F11"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -4869,23 +4869,23 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="G1" pane="bottomRight" sqref="G1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1026" min="1" style="24" width="9.108333333333331"/>
-    <col customWidth="1" max="16384" min="1027" style="24" width="9"/>
+    <col width="9.108333333333331" customWidth="1" style="24" min="1" max="1026"/>
+    <col width="9" customWidth="1" style="24" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='StopCondition' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4937,8 +4937,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -4959,22 +4959,22 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="V1" pane="bottomRight" sqref="V$1:V$1048576"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V$1:V$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="24" width="9"/>
+    <col width="9" customWidth="1" style="24" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Observation' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5124,7 +5124,7 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -5137,23 +5137,23 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A8" pane="topRight" sqref="$A8:$XFD10"/>
+      <selection pane="topRight" activeCell="A8" sqref="$A8:$XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="24" width="10.6"/>
-    <col customWidth="1" max="2" min="2" style="24" width="15.2083333333333"/>
-    <col customWidth="1" max="1025" min="3" style="24" width="10.6"/>
-    <col customWidth="1" max="16384" min="1026" style="24" width="9"/>
+    <col width="10.6" customWidth="1" style="24" min="1" max="1"/>
+    <col width="15.2083333333333" customWidth="1" style="24" min="2" max="2"/>
+    <col width="10.6" customWidth="1" style="24" min="3" max="1025"/>
+    <col width="9" customWidth="1" style="24" min="1026" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Model' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -5287,10 +5287,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="https://github.com/org/repo" ref="B4" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" display="https://github.com/org/repo" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -5303,28 +5303,28 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="F5" pane="bottomRight" sqref="A2:F5"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="A2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="24" width="14"/>
-    <col customWidth="1" max="3" min="2" style="24" width="13.3916666666667"/>
-    <col customWidth="1" max="1017" min="4" style="24" width="9.108333333333331"/>
+    <col width="14" customWidth="1" style="24" min="1" max="1"/>
+    <col width="13.3916666666667" customWidth="1" style="24" min="2" max="3"/>
+    <col width="9.108333333333331" customWidth="1" style="24" min="4" max="1017"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.1" r="1">
+    <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='ObservationSet' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="A2" s="5" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -5356,16 +5356,16 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3"/>
-    <row customHeight="1" ht="15.1" r="4"/>
-    <row customHeight="1" ht="15.1" r="5"/>
-    <row customHeight="1" ht="15.1" r="6"/>
-    <row customHeight="1" ht="15.1" r="7"/>
-    <row customHeight="1" ht="15.1" r="8"/>
-    <row customHeight="1" ht="15.1" r="9"/>
+    <row r="3" ht="15.1" customHeight="1"/>
+    <row r="4" ht="15.1" customHeight="1"/>
+    <row r="5" ht="15.1" customHeight="1"/>
+    <row r="6" ht="15.1" customHeight="1"/>
+    <row r="7" ht="15.1" customHeight="1"/>
+    <row r="8" ht="15.1" customHeight="1"/>
+    <row r="9" ht="15.1" customHeight="1"/>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -5386,36 +5386,36 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="N2" pane="bottomRight" sqref="N2"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="24" width="15.125"/>
-    <col customWidth="1" max="2" min="2" style="24" width="14.75"/>
-    <col customWidth="1" max="1023" min="3" style="24" width="9.108333333333331"/>
-    <col customWidth="1" max="1024" min="1024" width="9.108333333333331"/>
+    <col width="15.125" customWidth="1" style="24" min="1" max="1"/>
+    <col width="14.75" customWidth="1" style="24" min="2" max="2"/>
+    <col width="9.108333333333331" customWidth="1" style="24" min="3" max="1023"/>
+    <col width="9.108333333333331" customWidth="1" min="1024" max="1024"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Conclusion' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.1" r="2">
+          <t>!!ObjTables type='Data' id='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1">
       <c r="G2" s="7" t="inlineStr">
         <is>
           <t>!Process</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="3">
+    <row r="3" ht="15.1" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -5487,31 +5487,31 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.1" r="4">
+    <row r="4" ht="15.1" customHeight="1">
       <c r="C4" s="6" t="n"/>
       <c r="D4" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="5">
+    <row r="5" ht="15.1" customHeight="1">
       <c r="C5" s="6" t="n"/>
       <c r="D5" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="6">
+    <row r="6" ht="15.1" customHeight="1">
       <c r="C6" s="6" t="n"/>
       <c r="D6" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="7">
+    <row r="7" ht="15.1" customHeight="1">
       <c r="C7" s="6" t="n"/>
       <c r="D7" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="8">
+    <row r="8" ht="15.1" customHeight="1">
       <c r="C8" s="6" t="n"/>
       <c r="D8" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="9">
+    <row r="9" ht="15.1" customHeight="1">
       <c r="C9" s="6" t="n"/>
       <c r="D9" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="15.1" r="10">
+    <row r="10" ht="15.1" customHeight="1">
       <c r="C10" s="6" t="n"/>
       <c r="D10" s="6" t="n"/>
     </row>
@@ -5523,8 +5523,8 @@
   <mergeCells count="1">
     <mergeCell ref="G2:H2"/>
   </mergeCells>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -5545,28 +5545,28 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="D29" pane="bottomRight" sqref="D29"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="24" width="8.358333333333331"/>
-    <col customWidth="1" max="2" min="2" style="24" width="16.3916666666667"/>
-    <col customWidth="1" max="3" min="3" style="24" width="16.175"/>
-    <col customWidth="1" max="4" min="4" style="24" width="32.2416666666667"/>
-    <col customWidth="1" max="1023" min="5" style="24" width="8.78333333333333"/>
-    <col customWidth="1" max="1025" min="1024" style="4" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1026" style="4" width="9"/>
+    <col width="8.358333333333331" customWidth="1" style="24" min="1" max="1"/>
+    <col width="16.3916666666667" customWidth="1" style="24" min="2" max="2"/>
+    <col width="16.175" customWidth="1" style="24" min="3" max="3"/>
+    <col width="32.2416666666667" customWidth="1" style="24" min="4" max="4"/>
+    <col width="8.78333333333333" customWidth="1" style="24" min="5" max="1023"/>
+    <col width="8.78333333333333" customWidth="1" style="4" min="1024" max="1025"/>
+    <col width="9" customWidth="1" style="4" min="1026" max="16384"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3">
+    <row r="1" customFormat="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Reference' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5665,8 +5665,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -5679,22 +5679,22 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="L7" pane="bottomRight" sqref="L7"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="24" width="9"/>
+    <col width="9" customWidth="1" style="24" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Author' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5761,7 +5761,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -5774,22 +5774,22 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="E1" pane="bottomRight" sqref="E1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="16384" min="1" style="24" width="9"/>
+    <col width="9" customWidth="1" style="24" min="1" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Change' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -5894,21 +5894,21 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="B2" pane="topRight" sqref="B2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="24" width="10.6"/>
-    <col customWidth="1" max="16384" min="1026" style="24" width="9"/>
+    <col width="10.6" customWidth="1" style="24" min="1" max="1025"/>
+    <col width="9" customWidth="1" style="24" min="1026" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Taxon' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -5975,8 +5975,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -5989,23 +5989,23 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A5" pane="topRight" sqref="$A5:$XFD6"/>
+      <selection pane="topRight" activeCell="A5" sqref="$A5:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="24" width="18.5"/>
-    <col customWidth="1" max="2" min="2" style="24" width="5.375"/>
-    <col customWidth="1" max="1015" min="3" style="24" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1016" style="23" width="9"/>
+    <col width="18.5" customWidth="1" style="24" min="1" max="1"/>
+    <col width="5.375" customWidth="1" style="24" min="2" max="2"/>
+    <col width="8.78333333333333" customWidth="1" style="24" min="3" max="1015"/>
+    <col width="9" customWidth="1" style="23" min="1016" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Environment' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -6072,7 +6072,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -6085,30 +6085,30 @@
   <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="F1" pane="bottomRight" sqref="F1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="24" width="10.3916666666667"/>
-    <col customWidth="1" max="2" min="2" style="24" width="13.8166666666667"/>
-    <col customWidth="1" max="3" min="3" style="24" width="16.3916666666667"/>
-    <col customWidth="1" max="4" min="4" style="24" width="8.78333333333333"/>
-    <col customWidth="1" max="6" min="5" style="24" width="9.31666666666667"/>
-    <col customWidth="1" max="7" min="7" style="24" width="9.425000000000001"/>
-    <col customWidth="1" max="1022" min="8" style="24" width="8.78333333333333"/>
-    <col customWidth="1" max="1026" min="1023" style="9" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1027" style="9" width="9"/>
+    <col width="10.3916666666667" customWidth="1" style="24" min="1" max="1"/>
+    <col width="13.8166666666667" customWidth="1" style="24" min="2" max="2"/>
+    <col width="16.3916666666667" customWidth="1" style="24" min="3" max="3"/>
+    <col width="8.78333333333333" customWidth="1" style="24" min="4" max="4"/>
+    <col width="9.31666666666667" customWidth="1" style="24" min="5" max="6"/>
+    <col width="9.425000000000001" customWidth="1" style="24" min="7" max="7"/>
+    <col width="8.78333333333333" customWidth="1" style="24" min="8" max="1022"/>
+    <col width="8.78333333333333" customWidth="1" style="9" min="1023" max="1026"/>
+    <col width="9" customWidth="1" style="9" min="1027" max="16384"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="3">
+    <row r="1" customFormat="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Submodel' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6192,8 +6192,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -6206,33 +6206,33 @@
   <dimension ref="A1:AMR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C3" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="M1" pane="bottomRight" sqref="M1:P4"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1:P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="24" width="5.14166666666667"/>
-    <col customWidth="1" max="3" min="2" style="24" width="17.8916666666667"/>
-    <col customWidth="1" max="5" min="4" style="24" width="13.3916666666667"/>
-    <col customWidth="1" max="7" min="6" style="24" width="12.75"/>
-    <col customWidth="1" max="8" min="8" style="24" width="10.8166666666667"/>
-    <col customWidth="1" max="1033" min="9" style="24" width="8.78333333333333"/>
-    <col customWidth="1" max="1035" min="1034" style="9" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1036" style="9" width="9"/>
+    <col width="5.14166666666667" customWidth="1" style="24" min="1" max="1"/>
+    <col width="17.8916666666667" customWidth="1" style="24" min="2" max="3"/>
+    <col width="13.3916666666667" customWidth="1" style="24" min="4" max="5"/>
+    <col width="12.75" customWidth="1" style="24" min="6" max="7"/>
+    <col width="10.8166666666667" customWidth="1" style="24" min="8" max="8"/>
+    <col width="8.78333333333333" customWidth="1" style="24" min="9" max="1033"/>
+    <col width="8.78333333333333" customWidth="1" style="9" min="1034" max="1035"/>
+    <col width="9" customWidth="1" style="9" min="1036" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Compartment' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.1" r="2" s="3">
+          <t>!!ObjTables type='Data' id='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customFormat="1" customHeight="1" s="3">
       <c r="A2" s="14" t="n"/>
       <c r="B2" s="14" t="n"/>
       <c r="C2" s="14" t="n"/>
@@ -8545,8 +8545,8 @@
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="M2:P2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -8559,36 +8559,36 @@
   <dimension ref="A1:AMM16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="F3" pane="bottomRight" sqref="F3:F9"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="24" width="8.78333333333333"/>
-    <col customWidth="1" max="2" min="2" style="24" width="15.3166666666667"/>
-    <col customWidth="1" max="5" min="3" style="24" width="11.4583333333333"/>
-    <col customWidth="1" max="6" min="6" style="24" width="16.125"/>
-    <col customWidth="1" max="7" min="7" style="24" width="10.3916666666667"/>
-    <col customWidth="1" max="8" min="8" style="24" width="9.425000000000001"/>
-    <col customWidth="1" max="10" min="9" style="24" width="19.3916666666667"/>
-    <col customWidth="1" max="12" min="11" style="24" width="10.5"/>
-    <col customWidth="1" max="1026" min="13" style="24" width="8.78333333333333"/>
-    <col customWidth="1" max="1028" min="1027" style="20" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1029" style="20" width="9"/>
+    <col width="8.78333333333333" customWidth="1" style="24" min="1" max="1"/>
+    <col width="15.3166666666667" customWidth="1" style="24" min="2" max="2"/>
+    <col width="11.4583333333333" customWidth="1" style="24" min="3" max="5"/>
+    <col width="16.125" customWidth="1" style="24" min="6" max="6"/>
+    <col width="10.3916666666667" customWidth="1" style="24" min="7" max="7"/>
+    <col width="9.425000000000001" customWidth="1" style="24" min="8" max="8"/>
+    <col width="19.3916666666667" customWidth="1" style="24" min="9" max="10"/>
+    <col width="10.5" customWidth="1" style="24" min="11" max="12"/>
+    <col width="8.78333333333333" customWidth="1" style="24" min="13" max="1026"/>
+    <col width="8.78333333333333" customWidth="1" style="20" min="1027" max="1028"/>
+    <col width="9" customWidth="1" style="20" min="1029" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='SpeciesType' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="24">
+          <t>!!ObjTables type='Data' id='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="24">
       <c r="C2" s="21" t="inlineStr">
         <is>
           <t>!Structure</t>
@@ -8842,8 +8842,8 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -8856,24 +8856,24 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="H1" pane="bottomRight" sqref="H1"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="6" min="1" style="24" width="15.7416666666667"/>
-    <col customWidth="1" max="1026" min="7" style="24" width="9.108333333333331"/>
-    <col customWidth="1" max="16384" min="1027" style="24" width="9"/>
+    <col width="15.7416666666667" customWidth="1" style="24" min="1" max="6"/>
+    <col width="9.108333333333331" customWidth="1" style="24" min="7" max="1026"/>
+    <col width="9" customWidth="1" style="24" min="1027" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='Species' ObjTablesVersion='0.0.8'</t>
+          <t>!!ObjTables type='Data' id='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -9128,8 +9128,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -9150,37 +9150,37 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="D2" pane="bottomRight" sqref="D2:D7"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="24" width="10.3916666666667"/>
-    <col customWidth="1" max="2" min="2" style="24" width="9.75"/>
-    <col customWidth="1" max="3" min="3" style="24" width="10"/>
-    <col customWidth="1" max="5" min="4" style="24" width="9.75"/>
-    <col customWidth="1" max="6" min="6" style="24" width="10.5"/>
-    <col customWidth="1" max="7" min="7" style="24" width="10.3916666666667"/>
-    <col customWidth="1" max="8" min="8" style="24" width="9.425000000000001"/>
-    <col customWidth="1" max="11" min="9" style="24" width="19.3916666666667"/>
-    <col customWidth="1" max="13" min="12" style="24" width="10.5"/>
-    <col customWidth="1" max="14" min="14" style="24" width="23.675"/>
-    <col customWidth="1" max="1026" min="15" style="24" width="8.78333333333333"/>
-    <col customWidth="1" max="16384" min="1027" style="9" width="9"/>
+    <col width="10.3916666666667" customWidth="1" style="24" min="1" max="1"/>
+    <col width="9.75" customWidth="1" style="24" min="2" max="2"/>
+    <col width="10" customWidth="1" style="24" min="3" max="3"/>
+    <col width="9.75" customWidth="1" style="24" min="4" max="5"/>
+    <col width="10.5" customWidth="1" style="24" min="6" max="6"/>
+    <col width="10.3916666666667" customWidth="1" style="24" min="7" max="7"/>
+    <col width="9.425000000000001" customWidth="1" style="24" min="8" max="8"/>
+    <col width="19.3916666666667" customWidth="1" style="24" min="9" max="11"/>
+    <col width="10.5" customWidth="1" style="24" min="12" max="13"/>
+    <col width="23.675" customWidth="1" style="24" min="14" max="14"/>
+    <col width="8.78333333333333" customWidth="1" style="24" min="15" max="1026"/>
+    <col width="9" customWidth="1" style="9" min="1027" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables Type='Data' Id='DistributionInitConcentration' ObjTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="2">
+          <t>!!ObjTables type='Data' id='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" s="22" t="inlineStr">
         <is>
           <t>!Id</t>
@@ -9242,7 +9242,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="3">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="24" t="inlineStr">
         <is>
           <t>dist-init-conc-specie_1[e]</t>
@@ -9267,7 +9267,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="4">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" s="24" t="inlineStr">
         <is>
           <t>dist-init-conc-specie_2[e]</t>
@@ -9292,7 +9292,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="5">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" s="24" t="inlineStr">
         <is>
           <t>dist-init-conc-specie_2[c]</t>
@@ -9317,7 +9317,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="6">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" s="24" t="inlineStr">
         <is>
           <t>dist-init-conc-specie_4[c]</t>
@@ -9342,7 +9342,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="7">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" s="24" t="inlineStr">
         <is>
           <t>dist-init-conc-specie_5[c]</t>
@@ -9393,7 +9393,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="1" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" firstPageNumber="0" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/tests/submodels/fixtures/test_submodel.xlsx
+++ b/tests/submodels/fixtures/test_submodel.xlsx
@@ -1487,7 +1487,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
     <row r="1" ht="13.5" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4395,7 +4395,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4496,7 +4496,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4602,7 +4602,7 @@
     <row r="1" customFormat="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4885,7 +4885,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -4974,7 +4974,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -5320,7 +5320,7 @@
     <row r="1" ht="15.1" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5404,7 +5404,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5566,7 +5566,7 @@
     <row r="1" customFormat="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5694,7 +5694,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5789,7 +5789,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -5908,7 +5908,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -6005,7 +6005,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
     </row>
@@ -6108,7 +6108,7 @@
     <row r="1" customFormat="1" s="3">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -6228,7 +6228,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8584,7 +8584,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -8873,7 +8873,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
@@ -9176,7 +9176,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
     </row>
